--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>St14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H2">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I2">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J2">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N2">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O2">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P2">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q2">
-        <v>0.5975946265127691</v>
+        <v>0.005182900142222222</v>
       </c>
       <c r="R2">
-        <v>0.5975946265127691</v>
+        <v>0.04664610128</v>
       </c>
       <c r="S2">
-        <v>0.004818606211255794</v>
+        <v>3.179691157007592E-05</v>
       </c>
       <c r="T2">
-        <v>0.004818606211255794</v>
+        <v>3.179691157007592E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H3">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I3">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J3">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N3">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O3">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P3">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q3">
-        <v>0.7590990752321074</v>
+        <v>0.001753188595555556</v>
       </c>
       <c r="R3">
-        <v>0.7590990752321074</v>
+        <v>0.01577869736</v>
       </c>
       <c r="S3">
-        <v>0.006120870832150636</v>
+        <v>1.075575087476872E-05</v>
       </c>
       <c r="T3">
-        <v>0.006120870832150636</v>
+        <v>1.075575087476872E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H4">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I4">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J4">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N4">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O4">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P4">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q4">
-        <v>1.100108096038669</v>
+        <v>0.002621004355555555</v>
       </c>
       <c r="R4">
-        <v>1.100108096038669</v>
+        <v>0.0235890392</v>
       </c>
       <c r="S4">
-        <v>0.008870541115067149</v>
+        <v>1.60797702891206E-05</v>
       </c>
       <c r="T4">
-        <v>0.008870541115067149</v>
+        <v>1.60797702891206E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H5">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I5">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J5">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N5">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O5">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P5">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q5">
-        <v>2.796151700796246</v>
+        <v>0.006557045773333333</v>
       </c>
       <c r="R5">
-        <v>2.796151700796246</v>
+        <v>0.05901341196</v>
       </c>
       <c r="S5">
-        <v>0.02254631041730484</v>
+        <v>4.022724708067137E-05</v>
       </c>
       <c r="T5">
-        <v>0.02254631041730484</v>
+        <v>4.022724708067137E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H6">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I6">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J6">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N6">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O6">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P6">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q6">
-        <v>3.093881200395543</v>
+        <v>0.006869464893333333</v>
       </c>
       <c r="R6">
-        <v>3.093881200395543</v>
+        <v>0.06182518404</v>
       </c>
       <c r="S6">
-        <v>0.02494700338272694</v>
+        <v>4.214392748331204E-05</v>
       </c>
       <c r="T6">
-        <v>0.02494700338272694</v>
+        <v>4.214392748331205E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>5.22098193932109</v>
+        <v>0.01134666666666667</v>
       </c>
       <c r="H7">
-        <v>5.22098193932109</v>
+        <v>0.03404</v>
       </c>
       <c r="I7">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="J7">
-        <v>0.0802877214990685</v>
+        <v>0.0001677460580144518</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N7">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O7">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P7">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q7">
-        <v>1.610299965966077</v>
+        <v>0.004359022457777777</v>
       </c>
       <c r="R7">
-        <v>1.610299965966077</v>
+        <v>0.03923120212</v>
       </c>
       <c r="S7">
-        <v>0.01298438954056313</v>
+        <v>2.674245071650316E-05</v>
       </c>
       <c r="T7">
-        <v>0.01298438954056313</v>
+        <v>2.674245071650316E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H8">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I8">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J8">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N8">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O8">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P8">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q8">
-        <v>2.146342842560136</v>
+        <v>2.399346425472444</v>
       </c>
       <c r="R8">
-        <v>2.146342842560136</v>
+        <v>21.594117829252</v>
       </c>
       <c r="S8">
-        <v>0.0173066833164098</v>
+        <v>0.0147199066204687</v>
       </c>
       <c r="T8">
-        <v>0.0173066833164098</v>
+        <v>0.0147199066204687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H9">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I9">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J9">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N9">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O9">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P9">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q9">
-        <v>2.726408161375323</v>
+        <v>0.8116125478971111</v>
       </c>
       <c r="R9">
-        <v>2.726408161375323</v>
+        <v>7.304512931074</v>
       </c>
       <c r="S9">
-        <v>0.02198394483143986</v>
+        <v>0.004979214668717027</v>
       </c>
       <c r="T9">
-        <v>0.02198394483143986</v>
+        <v>0.004979214668717027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H10">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I10">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J10">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N10">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O10">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P10">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q10">
-        <v>3.951188704212023</v>
+        <v>1.213354928531111</v>
       </c>
       <c r="R10">
-        <v>3.951188704212023</v>
+        <v>10.92019435678</v>
       </c>
       <c r="S10">
-        <v>0.03185976176369278</v>
+        <v>0.007443890159357295</v>
       </c>
       <c r="T10">
-        <v>0.03185976176369278</v>
+        <v>0.007443890159357295</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H11">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I11">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J11">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N11">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O11">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P11">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q11">
-        <v>10.04276130248661</v>
+        <v>3.035486678537667</v>
       </c>
       <c r="R11">
-        <v>10.04276130248661</v>
+        <v>27.319380106839</v>
       </c>
       <c r="S11">
-        <v>0.08097815784039226</v>
+        <v>0.01862260488164105</v>
       </c>
       <c r="T11">
-        <v>0.08097815784039226</v>
+        <v>0.01862260488164105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H12">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I12">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J12">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N12">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O12">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P12">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q12">
-        <v>11.11209752495732</v>
+        <v>3.180116456895667</v>
       </c>
       <c r="R12">
-        <v>11.11209752495732</v>
+        <v>28.621048112061</v>
       </c>
       <c r="S12">
-        <v>0.08960057500231783</v>
+        <v>0.01950990352654167</v>
       </c>
       <c r="T12">
-        <v>0.08960057500231783</v>
+        <v>0.01950990352654168</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>18.7518707823557</v>
+        <v>5.252770333333333</v>
       </c>
       <c r="H13">
-        <v>18.7518707823557</v>
+        <v>15.758311</v>
       </c>
       <c r="I13">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="J13">
-        <v>0.2883643338471436</v>
+        <v>0.07765553910739642</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N13">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O13">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P13">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q13">
-        <v>5.783612591188969</v>
+        <v>2.017944522492555</v>
       </c>
       <c r="R13">
-        <v>5.783612591188969</v>
+        <v>18.161500702433</v>
       </c>
       <c r="S13">
-        <v>0.04663521109289106</v>
+        <v>0.01238001925067067</v>
       </c>
       <c r="T13">
-        <v>0.04663521109289106</v>
+        <v>0.01238001925067067</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H14">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I14">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J14">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N14">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O14">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P14">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q14">
-        <v>2.879233525015092</v>
+        <v>9.178535351838665</v>
       </c>
       <c r="R14">
-        <v>2.879233525015092</v>
+        <v>82.60681816654798</v>
       </c>
       <c r="S14">
-        <v>0.02321622707395142</v>
+        <v>0.05630999419566213</v>
       </c>
       <c r="T14">
-        <v>0.02321622707395142</v>
+        <v>0.05630999419566213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H15">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I15">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J15">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N15">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O15">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P15">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q15">
-        <v>3.657368070677483</v>
+        <v>3.104768191780666</v>
       </c>
       <c r="R15">
-        <v>3.657368070677483</v>
+        <v>27.942913726026</v>
       </c>
       <c r="S15">
-        <v>0.02949058729837586</v>
+        <v>0.01904764454854156</v>
       </c>
       <c r="T15">
-        <v>0.02949058729837586</v>
+        <v>0.01904764454854156</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H16">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I16">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J16">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N16">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O16">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P16">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q16">
-        <v>5.30036243755846</v>
+        <v>4.641606142246665</v>
       </c>
       <c r="R16">
-        <v>5.30036243755846</v>
+        <v>41.77445528021999</v>
       </c>
       <c r="S16">
-        <v>0.04273860277587412</v>
+        <v>0.02847609176295229</v>
       </c>
       <c r="T16">
-        <v>0.04273860277587412</v>
+        <v>0.02847609176295229</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H17">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I17">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J17">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N17">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O17">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P17">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q17">
-        <v>13.47196470781602</v>
+        <v>11.612046302779</v>
       </c>
       <c r="R17">
-        <v>13.47196470781602</v>
+        <v>104.508416725011</v>
       </c>
       <c r="S17">
-        <v>0.108628976799399</v>
+        <v>0.07123949898806674</v>
       </c>
       <c r="T17">
-        <v>0.108628976799399</v>
+        <v>0.07123949898806674</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H18">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I18">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J18">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N18">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O18">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P18">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q18">
-        <v>14.90643670371498</v>
+        <v>12.165317610121</v>
       </c>
       <c r="R18">
-        <v>14.90643670371498</v>
+        <v>109.487858491089</v>
       </c>
       <c r="S18">
-        <v>0.1201956063550339</v>
+        <v>0.07463379915806208</v>
       </c>
       <c r="T18">
-        <v>0.1201956063550339</v>
+        <v>0.07463379915806209</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.1548885586748</v>
+        <v>20.094113</v>
       </c>
       <c r="H19">
-        <v>25.1548885586748</v>
+        <v>60.28233899999999</v>
       </c>
       <c r="I19">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="J19">
-        <v>0.3868292804708704</v>
+        <v>0.2970659440405655</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N19">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O19">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P19">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q19">
-        <v>7.758486173806187</v>
+        <v>7.719508504946331</v>
       </c>
       <c r="R19">
-        <v>7.758486173806187</v>
+        <v>69.47557654451698</v>
       </c>
       <c r="S19">
-        <v>0.06255928016823602</v>
+        <v>0.04735891538728074</v>
       </c>
       <c r="T19">
-        <v>0.06255928016823602</v>
+        <v>0.04735891538728073</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H20">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I20">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J20">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N20">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O20">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P20">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q20">
-        <v>1.738307913920154</v>
+        <v>11.71704493001644</v>
       </c>
       <c r="R20">
-        <v>1.738307913920154</v>
+        <v>105.453404370148</v>
       </c>
       <c r="S20">
-        <v>0.01401656062399647</v>
+        <v>0.07188366190335241</v>
       </c>
       <c r="T20">
-        <v>0.01401656062399647</v>
+        <v>0.07188366190335241</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H21">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I21">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J21">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N21">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O21">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P21">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q21">
-        <v>2.208098720073158</v>
+        <v>3.963454626025111</v>
       </c>
       <c r="R21">
-        <v>2.208098720073158</v>
+        <v>35.671091634226</v>
       </c>
       <c r="S21">
-        <v>0.01780464170118025</v>
+        <v>0.02431565586785433</v>
       </c>
       <c r="T21">
-        <v>0.01780464170118025</v>
+        <v>0.02431565586785433</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H22">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I22">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J22">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N22">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O22">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P22">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q22">
-        <v>3.200039834144642</v>
+        <v>5.92533619269111</v>
       </c>
       <c r="R22">
-        <v>3.200039834144642</v>
+        <v>53.32802573421999</v>
       </c>
       <c r="S22">
-        <v>0.02580299610633438</v>
+        <v>0.03635173084025269</v>
       </c>
       <c r="T22">
-        <v>0.02580299610633438</v>
+        <v>0.03635173084025269</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H23">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I23">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J23">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N23">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O23">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P23">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q23">
-        <v>8.133561471894449</v>
+        <v>14.82359254974567</v>
       </c>
       <c r="R23">
-        <v>8.133561471894449</v>
+        <v>133.412332947711</v>
       </c>
       <c r="S23">
-        <v>0.06558363828805941</v>
+        <v>0.09094222318028404</v>
       </c>
       <c r="T23">
-        <v>0.06558363828805941</v>
+        <v>0.09094222318028404</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H24">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I24">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J24">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N24">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O24">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P24">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q24">
-        <v>8.99960932841728</v>
+        <v>15.52988222648766</v>
       </c>
       <c r="R24">
-        <v>8.99960932841728</v>
+        <v>139.768940038389</v>
       </c>
       <c r="S24">
-        <v>0.07256687306886364</v>
+        <v>0.09527528570859156</v>
       </c>
       <c r="T24">
-        <v>0.07256687306886364</v>
+        <v>0.09527528570859159</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.1870077489094</v>
+        <v>25.65154633333333</v>
       </c>
       <c r="H25">
-        <v>15.1870077489094</v>
+        <v>76.954639</v>
       </c>
       <c r="I25">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="J25">
-        <v>0.2335442379843184</v>
+        <v>0.3792255387243007</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.308428564718512</v>
+        <v>0.3841676666666666</v>
       </c>
       <c r="N25">
-        <v>0.308428564718512</v>
+        <v>1.152503</v>
       </c>
       <c r="O25">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="P25">
-        <v>0.1617232286348265</v>
+        <v>0.1594222304419173</v>
       </c>
       <c r="Q25">
-        <v>4.684107002365046</v>
+        <v>9.854494701268553</v>
       </c>
       <c r="R25">
-        <v>4.684107002365046</v>
+        <v>88.69045231141699</v>
       </c>
       <c r="S25">
-        <v>0.03776952819588428</v>
+        <v>0.06045698122396569</v>
       </c>
       <c r="T25">
-        <v>0.03776952819588428</v>
+        <v>0.06045698122396568</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H26">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I26">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J26">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.114460197996869</v>
+        <v>0.4567773333333333</v>
       </c>
       <c r="N26">
-        <v>0.114460197996869</v>
+        <v>1.370332</v>
       </c>
       <c r="O26">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="P26">
-        <v>0.06001672635972985</v>
+        <v>0.1895538526892628</v>
       </c>
       <c r="Q26">
-        <v>0.08168444692280771</v>
+        <v>7.050757515648446</v>
       </c>
       <c r="R26">
-        <v>0.08168444692280771</v>
+        <v>63.456817640836</v>
       </c>
       <c r="S26">
-        <v>0.0006586491341163776</v>
+        <v>0.04325615139692757</v>
       </c>
       <c r="T26">
-        <v>0.0006586491341163776</v>
+        <v>0.04325615139692756</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H27">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I27">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J27">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.145393928585552</v>
+        <v>0.1545113333333333</v>
       </c>
       <c r="N27">
-        <v>0.145393928585552</v>
+        <v>0.463534</v>
       </c>
       <c r="O27">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="P27">
-        <v>0.07623669868650651</v>
+        <v>0.06411924668800315</v>
       </c>
       <c r="Q27">
-        <v>0.1037602839265566</v>
+        <v>2.385017524409112</v>
       </c>
       <c r="R27">
-        <v>0.1037602839265566</v>
+        <v>21.465157719682</v>
       </c>
       <c r="S27">
-        <v>0.0008366540233599092</v>
+        <v>0.01463199931230054</v>
       </c>
       <c r="T27">
-        <v>0.0008366540233599092</v>
+        <v>0.01463199931230054</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H28">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I28">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J28">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.210709040717678</v>
+        <v>0.2309933333333333</v>
       </c>
       <c r="N28">
-        <v>0.210709040717678</v>
+        <v>0.6929799999999999</v>
       </c>
       <c r="O28">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="P28">
-        <v>0.1104844047065162</v>
+        <v>0.09585781316980505</v>
       </c>
       <c r="Q28">
-        <v>0.1503723718277135</v>
+        <v>3.565584065171111</v>
       </c>
       <c r="R28">
-        <v>0.1503723718277135</v>
+        <v>32.09025658654</v>
       </c>
       <c r="S28">
-        <v>0.001212502945547827</v>
+        <v>0.02187473385649818</v>
       </c>
       <c r="T28">
-        <v>0.001212502945547827</v>
+        <v>0.02187473385649817</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H29">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I29">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J29">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.535560500552094</v>
+        <v>0.577883</v>
       </c>
       <c r="N29">
-        <v>0.535560500552094</v>
+        <v>1.733649</v>
       </c>
       <c r="O29">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="P29">
-        <v>0.2808189097453266</v>
+        <v>0.2398103869433741</v>
       </c>
       <c r="Q29">
-        <v>0.3822024078841497</v>
+        <v>8.920129367369668</v>
       </c>
       <c r="R29">
-        <v>0.3822024078841497</v>
+        <v>80.28116430632701</v>
       </c>
       <c r="S29">
-        <v>0.003081826400171173</v>
+        <v>0.05472468249528733</v>
       </c>
       <c r="T29">
-        <v>0.003081826400171173</v>
+        <v>0.05472468249528732</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.713649358924245</v>
+        <v>15.43587433333334</v>
       </c>
       <c r="H30">
-        <v>0.713649358924245</v>
+        <v>46.30762300000001</v>
       </c>
       <c r="I30">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542117</v>
       </c>
       <c r="J30">
-        <v>0.01097442619859919</v>
+        <v>0.2281998006542116</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5925860760203771</v>
+        <v>0.605417</v>
       </c>
       <c r="N30">
-        <v>0.5925860760203771</v>
+        <v>1.816251</v>
       </c>
       <c r="O30">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676377</v>
       </c>
       <c r="P30">
-        <v>0.3107200318670941</v>
+        <v>0.2512364700676378</v>
       </c>
       <c r="Q30">
-        <v>0.422898673259376</v>
+        <v>9.345140731263669</v>
       </c>
       <c r="R30">
-        <v>0.422898673259376</v>
+        <v>84.10626658137302</v>
       </c>
       <c r="S30">
-        <v>0.003409974058151812</v>
+        <v>0.05733211238650274</v>
       </c>
       <c r="T30">
-        <v>0.003409974058151812</v>
+        <v>0.05733211238650275</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>15.43587433333334</v>
+      </c>
+      <c r="H31">
+        <v>46.30762300000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2281998006542117</v>
+      </c>
+      <c r="J31">
+        <v>0.2281998006542116</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3841676666666666</v>
+      </c>
+      <c r="N31">
+        <v>1.152503</v>
+      </c>
+      <c r="O31">
+        <v>0.1594222304419173</v>
+      </c>
+      <c r="P31">
+        <v>0.1594222304419173</v>
+      </c>
+      <c r="Q31">
+        <v>5.929963825596556</v>
+      </c>
+      <c r="R31">
+        <v>53.369674430369</v>
+      </c>
+      <c r="S31">
+        <v>0.03638012120669532</v>
+      </c>
+      <c r="T31">
+        <v>0.03638012120669531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H32">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J32">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.4567773333333333</v>
+      </c>
+      <c r="N32">
+        <v>1.370332</v>
+      </c>
+      <c r="O32">
+        <v>0.1895538526892628</v>
+      </c>
+      <c r="P32">
+        <v>0.1895538526892628</v>
+      </c>
+      <c r="Q32">
+        <v>0.5464320657288889</v>
+      </c>
+      <c r="R32">
+        <v>4.917888591560001</v>
+      </c>
+      <c r="S32">
+        <v>0.003352341661281892</v>
+      </c>
+      <c r="T32">
+        <v>0.003352341661281891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H33">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J33">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.1545113333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.463534</v>
+      </c>
+      <c r="O33">
+        <v>0.06411924668800315</v>
+      </c>
+      <c r="P33">
+        <v>0.06411924668800315</v>
+      </c>
+      <c r="Q33">
+        <v>0.1848383028022222</v>
+      </c>
+      <c r="R33">
+        <v>1.66354472522</v>
+      </c>
+      <c r="S33">
+        <v>0.001133976539714931</v>
+      </c>
+      <c r="T33">
+        <v>0.001133976539714931</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H34">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J34">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.2309933333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.6929799999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.09585781316980505</v>
+      </c>
+      <c r="P34">
+        <v>0.09585781316980505</v>
+      </c>
+      <c r="Q34">
+        <v>0.2763319348222222</v>
+      </c>
+      <c r="R34">
+        <v>2.4869874134</v>
+      </c>
+      <c r="S34">
+        <v>0.001695286780455485</v>
+      </c>
+      <c r="T34">
+        <v>0.001695286780455484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H35">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J35">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.577883</v>
+      </c>
+      <c r="N35">
+        <v>1.733649</v>
+      </c>
+      <c r="O35">
+        <v>0.2398103869433741</v>
+      </c>
+      <c r="P35">
+        <v>0.2398103869433741</v>
+      </c>
+      <c r="Q35">
+        <v>0.6913079489633335</v>
+      </c>
+      <c r="R35">
+        <v>6.221771540670001</v>
+      </c>
+      <c r="S35">
+        <v>0.004241150151014273</v>
+      </c>
+      <c r="T35">
+        <v>0.004241150151014272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.713649358924245</v>
-      </c>
-      <c r="H31">
-        <v>0.713649358924245</v>
-      </c>
-      <c r="I31">
-        <v>0.01097442619859919</v>
-      </c>
-      <c r="J31">
-        <v>0.01097442619859919</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.308428564718512</v>
-      </c>
-      <c r="N31">
-        <v>0.308428564718512</v>
-      </c>
-      <c r="O31">
-        <v>0.1617232286348265</v>
-      </c>
-      <c r="P31">
-        <v>0.1617232286348265</v>
-      </c>
-      <c r="Q31">
-        <v>0.2201098474852911</v>
-      </c>
-      <c r="R31">
-        <v>0.2201098474852911</v>
-      </c>
-      <c r="S31">
-        <v>0.001774819637252087</v>
-      </c>
-      <c r="T31">
-        <v>0.001774819637252087</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H36">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J36">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.605417</v>
+      </c>
+      <c r="N36">
+        <v>1.816251</v>
+      </c>
+      <c r="O36">
+        <v>0.2512364700676377</v>
+      </c>
+      <c r="P36">
+        <v>0.2512364700676378</v>
+      </c>
+      <c r="Q36">
+        <v>0.7242462307033335</v>
+      </c>
+      <c r="R36">
+        <v>6.518216076330002</v>
+      </c>
+      <c r="S36">
+        <v>0.004443225360456369</v>
+      </c>
+      <c r="T36">
+        <v>0.004443225360456369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.196276666666667</v>
+      </c>
+      <c r="H37">
+        <v>3.588830000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.01768543141551132</v>
+      </c>
+      <c r="J37">
+        <v>0.01768543141551131</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.3841676666666666</v>
+      </c>
+      <c r="N37">
+        <v>1.152503</v>
+      </c>
+      <c r="O37">
+        <v>0.1594222304419173</v>
+      </c>
+      <c r="P37">
+        <v>0.1594222304419173</v>
+      </c>
+      <c r="Q37">
+        <v>0.4595708157211111</v>
+      </c>
+      <c r="R37">
+        <v>4.13613734149</v>
+      </c>
+      <c r="S37">
+        <v>0.002819450922588369</v>
+      </c>
+      <c r="T37">
+        <v>0.002819450922588368</v>
       </c>
     </row>
   </sheetData>
